--- a/Admin.xlsx
+++ b/Admin.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="380">
   <si>
     <t>Y</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1505,6 +1505,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -2203,10 +2204,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.5" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.83203125" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="23.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="37.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.33203125" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2366,7 +2367,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2420,8 +2421,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2469,17 +2470,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.83203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.83203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.1640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="47" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16" width="7.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="8.83203125" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="17.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="5.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="28.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="20.83203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="19.1640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="13.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="48.765625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="47.0" collapsed="true"/>
+    <col min="10" max="16" bestFit="true" customWidth="true" style="2" width="7.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="8.6640625" collapsed="true"/>
+    <col min="18" max="16384" style="2" width="8.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -7927,11 +7929,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" style="45" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.5" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.83203125" style="13" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="13" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="45" width="11.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="28.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="8.5" collapsed="true"/>
+    <col min="5" max="16384" style="13" width="8.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8105,11 +8107,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="13" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.83203125" style="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.5" style="13" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.83203125" style="13" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="13" width="23.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="13" width="11.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="13" width="27.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="13" width="9.5" collapsed="true"/>
+    <col min="5" max="16384" style="13" width="8.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" collapsed="1">
@@ -8263,8 +8265,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8437,8 +8439,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8509,8 +8511,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8686,8 +8688,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
